--- a/exam/question.xlsx
+++ b/exam/question.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>question</t>
   </si>
@@ -22,21 +23,6 @@
     <t>answer</t>
   </si>
   <si>
-    <t>Very good to go to home</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -47,15 +33,232 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>128.0.0.1</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>126.0.0.1</t>
+  </si>
+  <si>
+    <t>125.0.0.1</t>
+  </si>
+  <si>
+    <t>IP address for loopback traffic ?</t>
+  </si>
+  <si>
+    <t>IP address 126.0.0.1 belongs to ____ class?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>APIPA stands for ?</t>
+  </si>
+  <si>
+    <t>Automatic Private IP Addressing</t>
+  </si>
+  <si>
+    <t>Automatic Protocol IP Addressing</t>
+  </si>
+  <si>
+    <t>Addressing Private IP Action</t>
+  </si>
+  <si>
+    <t>Automatic Public IP Addressing</t>
+  </si>
+  <si>
+    <t>DHCP stands for ?</t>
+  </si>
+  <si>
+    <t>Dynamic Host Configuration Protocol</t>
+  </si>
+  <si>
+    <t>Dynamic Host Control Protocol</t>
+  </si>
+  <si>
+    <t>Dynamic Host Configuration Program</t>
+  </si>
+  <si>
+    <t>A &amp; B</t>
+  </si>
+  <si>
+    <t>126.0.0.0 is ____________?</t>
+  </si>
+  <si>
+    <t>Host IP Address</t>
+  </si>
+  <si>
+    <t>Router IP Address</t>
+  </si>
+  <si>
+    <t>Network IP Address</t>
+  </si>
+  <si>
+    <t>Broadcast IP Address</t>
+  </si>
+  <si>
+    <t>Broadcast IP Address among following IP Address</t>
+  </si>
+  <si>
+    <t>192.168. 16.255</t>
+  </si>
+  <si>
+    <t>192.168. 16.0</t>
+  </si>
+  <si>
+    <t>127.0.0.254</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>DORA stands for ?</t>
+  </si>
+  <si>
+    <t>Discover, Offer, Request and Acknowledge</t>
+  </si>
+  <si>
+    <t>Discover, Offer, Retreive and Acknowledge</t>
+  </si>
+  <si>
+    <t>Discover, Offer, Request and Addressing</t>
+  </si>
+  <si>
+    <t>Discover, Offer, Request and Automatic</t>
+  </si>
+  <si>
+    <t>128.23.0.45 belongs to which class ?</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Which IP address can be accessed using 122.0.12.23 ?</t>
+  </si>
+  <si>
+    <t>122.233.23.23</t>
+  </si>
+  <si>
+    <t>122.111.89.123</t>
+  </si>
+  <si>
+    <t>Both A &amp; B</t>
+  </si>
+  <si>
+    <t>Total number of ports in computer?</t>
+  </si>
+  <si>
+    <t>Which of the following device is used to connect two systems, especially if the systems use different protocols?</t>
+  </si>
+  <si>
+    <t>Repeater</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>Hub</t>
+  </si>
+  <si>
+    <t>Radio Channels are ?</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Unicast</t>
+  </si>
+  <si>
+    <t>Telecast</t>
+  </si>
+  <si>
+    <t>Which is not a MAC address ?</t>
+  </si>
+  <si>
+    <t>00:1B:44:11:3A:B7</t>
+  </si>
+  <si>
+    <t>00:0a:95:9d:68:16</t>
+  </si>
+  <si>
+    <t>00:1A:C2:7B:00:47</t>
+  </si>
+  <si>
+    <t>00:1A:C2:7H:00:47</t>
+  </si>
+  <si>
+    <t>Brute Force Attack</t>
+  </si>
+  <si>
+    <t>Phising</t>
+  </si>
+  <si>
+    <t>Spidering</t>
+  </si>
+  <si>
+    <t>Mask attack</t>
+  </si>
+  <si>
+    <t>We use crunch tool which attack procedure?</t>
+  </si>
+  <si>
+    <t>Which model stores session ID ?</t>
+  </si>
+  <si>
+    <t>Session Layer</t>
+  </si>
+  <si>
+    <t>Transport Layer</t>
+  </si>
+  <si>
+    <t>Network Layer</t>
+  </si>
+  <si>
+    <t>Physical Layer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -82,8 +285,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,12 +599,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.7109375" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -404,16 +616,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -421,22 +633,320 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1">
+        <v>65535</v>
+      </c>
+      <c r="C10" s="1">
+        <v>65534</v>
+      </c>
+      <c r="D10" s="1">
+        <v>65536</v>
+      </c>
+      <c r="E10" s="1">
+        <v>65537</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
